--- a/uploads/ProyectoNuevo/proyectoprueba.xlsx
+++ b/uploads/ProyectoNuevo/proyectoprueba.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/uploads/ProyectoNuevo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/Proyecto37/Proyecto16/Proyecto11/proyecto2/uploads/ProyectoNuevo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{32070E5A-1A26-4DD2-AF09-A411FFC26FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FE19105-7077-4425-9A76-10C8E0632928}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{32070E5A-1A26-4DD2-AF09-A411FFC26FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E53B4FED-AC4B-4385-8422-D31DDA18CCF0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{10B7CCDE-ACD5-4ABE-8E18-6A0D8DDE1ECD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>id</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>proyecto_relacionado</t>
+  </si>
+  <si>
+    <t>porcentaje_utilidades</t>
+  </si>
+  <si>
+    <t>porcentaje_contingencia</t>
   </si>
 </sst>
 </file>
@@ -106,12 +112,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E01F2B-E036-43C6-91CE-36909CA6009F}" name="Tabla1" displayName="Tabla1" ref="A1:C3" totalsRowShown="0">
-  <autoFilter ref="A1:C3" xr:uid="{89E01F2B-E036-43C6-91CE-36909CA6009F}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89E01F2B-E036-43C6-91CE-36909CA6009F}" name="Tabla1" displayName="Tabla1" ref="A1:E3" totalsRowShown="0">
+  <autoFilter ref="A1:E3" xr:uid="{89E01F2B-E036-43C6-91CE-36909CA6009F}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D6C86F85-70DC-4A1F-A3C2-CD1FFFB34F2B}" name="id"/>
     <tableColumn id="2" xr3:uid="{2E0661A2-7860-42A1-B4D7-082196831AB7}" name="nombre"/>
     <tableColumn id="3" xr3:uid="{8783D0CC-C57F-4E4F-A330-37F98F20E5D0}" name="proyecto_relacionado"/>
+    <tableColumn id="4" xr3:uid="{84D1D2DB-EF87-4E1E-AF6D-04A419C94E32}" name="porcentaje_utilidades"/>
+    <tableColumn id="5" xr3:uid="{F1B40745-3834-49B2-A9E7-A34638019803}" name="porcentaje_contingencia"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -434,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F9215B-1F68-4FC0-9413-C173A46DC618}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -446,7 +454,7 @@
     <col min="3" max="3" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,8 +464,14 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -467,8 +481,11 @@
       <c r="C2">
         <v>2</v>
       </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>4</v>
       </c>
@@ -477,6 +494,9 @@
       </c>
       <c r="C3">
         <v>3</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/ProyectoNuevo/proyectoprueba.xlsx
+++ b/uploads/ProyectoNuevo/proyectoprueba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/Proyecto37/Proyecto16/Proyecto11/proyecto2/uploads/ProyectoNuevo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{32070E5A-1A26-4DD2-AF09-A411FFC26FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E53B4FED-AC4B-4385-8422-D31DDA18CCF0}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{32070E5A-1A26-4DD2-AF09-A411FFC26FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92ED8DAA-9B4D-44A8-A3A9-3079203598A2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{10B7CCDE-ACD5-4ABE-8E18-6A0D8DDE1ECD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{10B7CCDE-ACD5-4ABE-8E18-6A0D8DDE1ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -109,6 +109,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -445,13 +449,15 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="48.1796875" customWidth="1"/>
     <col min="3" max="3" width="20.7265625" customWidth="1"/>
+    <col min="4" max="4" width="23.6328125" customWidth="1"/>
+    <col min="5" max="5" width="26.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
